--- a/medicine/Enfance/Franck_Krebs/Franck_Krebs.xlsx
+++ b/medicine/Enfance/Franck_Krebs/Franck_Krebs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franck Krebs, né le 29 novembre 1963[1] à Bordeaux et décédé le 8 février 2015 à Rouen[2],[3], est un écrivain français et professeur de français au lycée Marcel-Sembat à Sotteville-lès-Rouen. . 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franck Krebs, né le 29 novembre 1963 à Bordeaux et décédé le 8 février 2015 à Rouen est un écrivain français et professeur de français au lycée Marcel-Sembat à Sotteville-lès-Rouen. . 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2001 : Tom Cox et l'impératrice sanglante, Seuil Jeunesse
 2002 : Tom Cox et l'œil du pharaon, Seuil Jeunesse
@@ -520,10 +534,10 @@
 2005 : Tom Cox et le diable du Tsar, Seuil Jeunesse
 2006 : Tom Cox et le jour de l'invasion, Seuil Jeunesse
 2007 : Tom Cox et la fin des sorciers, Seuil Jeunesse
-2009 : Opération Phénix[4], Gallimard Jeunesse
-2010 : Opération Phenix : l'enfer s'occupe du reste[5], Gallimard Jeunesse
-2011 : Opération Phénix : et la mort viendra les chercher[6], Gallimard Jeunesse
-2014 : La Cérémonie du café[7], édition Thierry magnier
+2009 : Opération Phénix, Gallimard Jeunesse
+2010 : Opération Phenix : l'enfer s'occupe du reste, Gallimard Jeunesse
+2011 : Opération Phénix : et la mort viendra les chercher, Gallimard Jeunesse
+2014 : La Cérémonie du café, édition Thierry magnier
 2015 : Anna et son fantôme, Hachette Jeunesse, (Illustration Solène Debiès)</t>
         </is>
       </c>
